--- a/TP2/comparacoesdepesos.xlsx
+++ b/TP2/comparacoesdepesos.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eow\Desktop\Mestrado\GA\TP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20360415-CB61-468E-8BEC-635596B19870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B6E680-BC0B-4389-BD50-F16B516AF9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5415" yWindow="960" windowWidth="17040" windowHeight="13875" xr2:uid="{345AA5D2-B017-44DC-9A95-17C78678CAA7}"/>
+    <workbookView xWindow="9690" yWindow="795" windowWidth="17040" windowHeight="13875" activeTab="1" xr2:uid="{345AA5D2-B017-44DC-9A95-17C78678CAA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
   <si>
     <t>Var 0</t>
   </si>
@@ -117,16 +118,6 @@
   <dxfs count="6">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -162,6 +153,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -487,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{940C63C7-932B-4064-85BB-ABD740823BAA}">
   <dimension ref="B2:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,15 +622,154 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
       <formula>$H$17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
       <formula>$H$20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+      <formula>$H$20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A8A773-AA95-4508-BBB9-8CBED86390FB}">
+  <dimension ref="B2:J20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="e">
+        <f>C2/(C3*C3+(C4*C4*C6*C6))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D7" t="e">
+        <f>C2/(C3*C3+(C4*C4*C7*C7))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>0.5</v>
+      </c>
+      <c r="D10">
+        <f>C2/(C10*C10)</f>
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <f>44*(0.952/0.984)</f>
+        <v>42.569105691056905</v>
+      </c>
+      <c r="H17">
+        <f>CHIINV(0.05,44)</f>
+        <v>60.480886582336453</v>
+      </c>
+      <c r="J17">
+        <f>((79.08-55.76)/(60-40))*(44-40)+55.76</f>
+        <v>60.423999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <f>J2/C2</f>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f>_xlfn.F.INV(0.95,27,10000)</f>
+        <v>1.4867993413605953</v>
+      </c>
+      <c r="J20">
+        <f>((1.22-1.4)/(120-40))*(44-40)+1.4</f>
+        <v>1.391</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+      <formula>$H$17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>$H$20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>$H$20</formula>
     </cfRule>
   </conditionalFormatting>

--- a/TP2/comparacoesdepesos.xlsx
+++ b/TP2/comparacoesdepesos.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eow\Desktop\Mestrado\GA\TP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B6E680-BC0B-4389-BD50-F16B516AF9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5324B35-85D5-47AC-AED4-86413EEEF3A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9690" yWindow="795" windowWidth="17040" windowHeight="13875" activeTab="1" xr2:uid="{345AA5D2-B017-44DC-9A95-17C78678CAA7}"/>
+    <workbookView xWindow="10485" yWindow="1320" windowWidth="17040" windowHeight="13875" activeTab="2" xr2:uid="{345AA5D2-B017-44DC-9A95-17C78678CAA7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId2"/>
+    <sheet name="Rede1" sheetId="1" r:id="rId1"/>
+    <sheet name="JBot1" sheetId="3" r:id="rId2"/>
+    <sheet name="JBot2" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="15">
   <si>
     <t>Var 0</t>
   </si>
@@ -74,6 +75,12 @@
   </si>
   <si>
     <t>teste fischer</t>
+  </si>
+  <si>
+    <t>teste1</t>
+  </si>
+  <si>
+    <t>teste 2</t>
   </si>
 </sst>
 </file>
@@ -115,7 +122,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -128,11 +155,71 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -489,7 +576,7 @@
   <dimension ref="B2:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,9 +595,6 @@
       <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E2">
-        <v>0.99</v>
-      </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
@@ -563,11 +647,11 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D10">
         <f>C2/(C10*C10)</f>
-        <v>6.1499999999999986</v>
+        <v>3.9359999999999999</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
@@ -622,15 +706,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="lessThan">
       <formula>$H$17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="lessThan">
       <formula>$H$20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
       <formula>$H$20</formula>
     </cfRule>
   </conditionalFormatting>
@@ -640,10 +724,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A8A773-AA95-4508-BBB9-8CBED86390FB}">
-  <dimension ref="B2:J20"/>
+  <dimension ref="B2:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,31 +740,42 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>0.65500000000000003</v>
-      </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
       <c r="I2" t="s">
         <v>10</v>
+      </c>
+      <c r="J2">
+        <v>1.351</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
+      <c r="J3">
+        <v>1.0780000000000001</v>
+      </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
+      <c r="J4">
+        <v>1.004</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>0.997</v>
+      </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -689,6 +784,9 @@
       <c r="D6" t="e">
         <f>C2/(C3*C3+(C4*C4*C6*C6))</f>
         <v>#DIV/0!</v>
+      </c>
+      <c r="J6">
+        <v>0.96799999999999997</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -696,6 +794,19 @@
         <f>C2/(C3*C3+(C4*C4*C7*C7))</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="J7">
+        <v>0.52700000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>0.52900000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -706,7 +817,15 @@
       </c>
       <c r="D10">
         <f>C2/(C10*C10)</f>
-        <v>2.62</v>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0.39300000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>0.34200000000000003</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
@@ -744,32 +863,365 @@
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D20">
-        <f>J2/C2</f>
-        <v>0</v>
+        <f>J2/$E$2</f>
+        <v>5.4039999999999999</v>
       </c>
       <c r="H20">
-        <f>_xlfn.F.INV(0.95,27,10000)</f>
-        <v>1.4867993413605953</v>
+        <f>_xlfn.F.INV(0.95,32,10000)</f>
+        <v>1.4447393149853607</v>
       </c>
       <c r="J20">
         <f>((1.22-1.4)/(120-40))*(44-40)+1.4</f>
         <v>1.391</v>
       </c>
     </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ref="D21:D29" si="0">J3/$E$2</f>
+        <v>4.3120000000000003</v>
+      </c>
+      <c r="H21">
+        <f>_xlfn.F.INV(0.95,31,10000)</f>
+        <v>1.4522998023021809</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>4.016</v>
+      </c>
+      <c r="H22">
+        <f>_xlfn.F.INV(0.95,30,10000)</f>
+        <v>1.4602496454044438</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>3.988</v>
+      </c>
+      <c r="H23">
+        <f>_xlfn.F.INV(0.95,29,10000)</f>
+        <v>1.4686230146160753</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>3.8719999999999999</v>
+      </c>
+      <c r="H24">
+        <f>_xlfn.F.INV(0.95,28,10000)</f>
+        <v>1.4774584009376412</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>2.1080000000000001</v>
+      </c>
+      <c r="H25">
+        <f>_xlfn.F.INV(0.95,27,10000)</f>
+        <v>1.4867993413605953</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>2.1160000000000001</v>
+      </c>
+      <c r="H26">
+        <f>_xlfn.F.INV(0.95,26,10000)</f>
+        <v>1.4966952982230823</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>1.68</v>
+      </c>
+      <c r="H27">
+        <f>_xlfn.F.INV(0.95,25,10000)</f>
+        <v>1.5072027327138022</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>1.5720000000000001</v>
+      </c>
+      <c r="H28">
+        <f>_xlfn.F.INV(0.95,24,10000)</f>
+        <v>1.5183864251510719</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>1.3680000000000001</v>
+      </c>
+      <c r="H29">
+        <f>_xlfn.F.INV(0.95,23,10000)</f>
+        <v>1.5303211118023228</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="lessThan">
       <formula>$H$17</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="D20:D29">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
       <formula>$H$20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
+      <formula>$H$20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="greaterThan">
+      <formula>$H$20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1134276B-D8A0-4310-996B-1C4731E7A8B3}">
+  <dimension ref="B2:J29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <f>SQRT(C2)</f>
+        <v>0.87005746936624828</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="e">
+        <f>C2/(C3*C3+(C4*C4*C6*C6))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D7" t="e">
+        <f>C2/(C3*C3+(C4*C4*C7*C7))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>0.5</v>
+      </c>
+      <c r="D10">
+        <f>C2/(C10*C10)</f>
+        <v>3.028</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <f>44*(0.952/0.984)</f>
+        <v>42.569105691056905</v>
+      </c>
+      <c r="H17">
+        <f>CHIINV(0.05,44)</f>
+        <v>60.480886582336453</v>
+      </c>
+      <c r="J17">
+        <f>((79.08-55.76)/(60-40))*(44-40)+55.76</f>
+        <v>60.423999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20">
+        <f>J2/$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f>_xlfn.F.INV(0.95,7,10000)</f>
+        <v>2.0105027334329679</v>
+      </c>
+      <c r="J20">
+        <f>((1.22-1.4)/(120-40))*(44-40)+1.4</f>
+        <v>1.391</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ref="D21:D29" si="0">J3/$C$2</f>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f>_xlfn.F.INV(0.95,31,10000)</f>
+        <v>1.4522998023021809</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f>_xlfn.F.INV(0.95,30,10000)</f>
+        <v>1.4602496454044438</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f>_xlfn.F.INV(0.95,29,10000)</f>
+        <v>1.4686230146160753</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f>_xlfn.F.INV(0.95,28,10000)</f>
+        <v>1.4774584009376412</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f>_xlfn.F.INV(0.95,27,10000)</f>
+        <v>1.4867993413605953</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f>_xlfn.F.INV(0.95,26,10000)</f>
+        <v>1.4966952982230823</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f>_xlfn.F.INV(0.95,25,10000)</f>
+        <v>1.5072027327138022</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f>_xlfn.F.INV(0.95,24,10000)</f>
+        <v>1.5183864251510719</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f>_xlfn.F.INV(0.95,23,10000)</f>
+        <v>1.5303211118023228</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
+      <formula>$H$17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20:D29">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>$H$20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+      <formula>$H$20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
       <formula>$H$20</formula>
     </cfRule>
   </conditionalFormatting>
